--- a/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.01a.xlsx
+++ b/Projects/ES ASG/ES ASG API Playbook Project/VA API Developer Playbook Project Plan 2018.08.01a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ES-ASG\Projects\ES ASG\ES ASG API Playbook Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE6D3F0B-0D50-4E2D-8111-B854F8E09E2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E5074-399B-4717-AFB1-0C2FE5BABF72}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20498" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="105">
   <si>
     <t>Due Date</t>
   </si>
@@ -304,15 +304,58 @@
 (Jordan)</t>
   </si>
   <si>
-    <t>Editing Review
-(Paul)</t>
-  </si>
-  <si>
     <t>Status as of 7/27</t>
   </si>
   <si>
     <t>Section
 Number</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_01.00 Introduction_Section_01.01_Initial Draft.docx
+ASG_API Playbook_01.00 Introduction_Section_01.02_SME Review {Paul Marshall}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_02.01 Development Lifecycle_Section_01.01_Initial Draft.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.02_SME Review.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.03_SME Review Resolved.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.04_V2 Draft.docx
+ASG_API Playbook_02.01 Development Lifecycle_Section_01.05_Standards Review {paul marshall}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_02.02 Industry Standards_HL7_Section_01.01_Initial Draft.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_03.00 API Layer_Section_01.01_Initial Draft.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_04.00 API Contracts_Section_01.01_Initial Draft.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_05.01 Naming Standards_Section_01.01_Initial Draft.docx
+ASG_API Playbook_05.01 Naming Standards_Section_01.02_SME Review {MaxGirin}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_05.04 Objects and Methods_Section_01.01_Initial Draft {max girin}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_05.05 Middleware Artifacts_Section_01.01_Initial Draft {max girin}.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_06.00 Configuration Management_Section_01.01_Initial Draft.docx
+ASG_API Playbook_06.00 Configuration Management_Section_01.02_SME Review.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_07.00 Unit Testing_Section_01.01_Initial Draft.docx</t>
+  </si>
+  <si>
+    <t>ASG_API Playbook_09.01 Exception Handling Approach_Section_01.01_Initial Draft.docx
+ASG_API Playbook_09.01 Exception Handling Approach_Section_01.02_SME Review.docx
+ASG_API Playbook_09.01 Exception Handling Approach_Section_01.03_SME Review.docx
+ASG_API Playbook_09.01 Exception Handling Approach_Section_01.04_SME Review Resolved.docx
+ASG_API Playbook_09.01 Exception Handling Approach_Section_01.05_Standards Review {paul marshall}.docx</t>
   </si>
 </sst>
 </file>
@@ -491,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -567,11 +610,56 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -765,12 +853,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -872,35 +954,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:J29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:J29">
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section_x000a_Number" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Section Name" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Primary_x000a_Assignment" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Primary_x000a_Reviewer" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="V1" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="V2" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Arch Review_x000a_(Jordan)" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Editing Review_x000a_(Paul)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status as of 7/27" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Section_x000a_Number" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Section Name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Primary_x000a_Assignment" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Primary_x000a_Reviewer" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="V1" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="V2" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Arch Review_x000a_(Jordan)" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Inventory" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status as of 7/27" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:D29" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Section Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Due Date" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Old Section" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Old Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Section Name" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Due Date" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Old Section" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Old Date" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1206,7 +1288,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1219,7 +1301,8 @@
     <col min="6" max="6" width="5.53125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.796875" style="17" customWidth="1"/>
     <col min="8" max="8" width="18.59765625" style="17" customWidth="1"/>
-    <col min="9" max="10" width="34.86328125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="78.19921875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="34.86328125" style="17" customWidth="1"/>
     <col min="11" max="11" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1228,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>2</v>
@@ -1248,14 +1331,14 @@
       <c r="H1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -1278,12 +1361,14 @@
         <v>47</v>
       </c>
       <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="J2" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1306,7 +1391,9 @@
         <v>65</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="I3" s="34" t="s">
+        <v>95</v>
+      </c>
       <c r="J3" s="18" t="s">
         <v>69</v>
       </c>
@@ -1334,7 +1421,9 @@
         <v>71</v>
       </c>
       <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="I4" s="35" t="s">
+        <v>96</v>
+      </c>
       <c r="J4" s="29" t="s">
         <v>87</v>
       </c>
@@ -1362,7 +1451,9 @@
         <v>47</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="38" t="s">
+        <v>97</v>
+      </c>
       <c r="J5" s="24" t="s">
         <v>82</v>
       </c>
@@ -1390,12 +1481,14 @@
         <v>71</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="36" t="s">
+        <v>98</v>
+      </c>
       <c r="J6" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -1419,6 +1512,9 @@
       </c>
       <c r="H7" s="17" t="s">
         <v>84</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>62</v>
@@ -1447,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="17" t="s">
         <v>88</v>
       </c>
@@ -1475,7 +1571,7 @@
         <v>71</v>
       </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="26" t="s">
         <v>85</v>
       </c>
@@ -1503,7 +1599,9 @@
         <v>76</v>
       </c>
       <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="38" t="s">
+        <v>100</v>
+      </c>
       <c r="J10" s="24" t="s">
         <v>86</v>
       </c>
@@ -1531,12 +1629,14 @@
         <v>76</v>
       </c>
       <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="I11" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="J11" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="24">
         <v>11</v>
       </c>
@@ -1559,7 +1659,9 @@
         <v>65</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="J12" s="18" t="s">
         <v>74</v>
       </c>
@@ -1587,7 +1689,9 @@
         <v>76</v>
       </c>
       <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="38" t="s">
+        <v>103</v>
+      </c>
       <c r="J13" s="26" t="s">
         <v>85</v>
       </c>
@@ -1615,10 +1719,10 @@
         <v>71</v>
       </c>
       <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1643,7 +1747,9 @@
       <c r="H15" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="39" t="s">
+        <v>104</v>
+      </c>
       <c r="J15" s="18" t="s">
         <v>69</v>
       </c>
@@ -1673,7 +1779,7 @@
       <c r="H16" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="17" t="s">
         <v>69</v>
       </c>
@@ -1703,7 +1809,7 @@
       <c r="H17" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="18" t="s">
         <v>69</v>
       </c>
@@ -1733,7 +1839,7 @@
       <c r="H18" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="17" t="s">
         <v>69</v>
       </c>
@@ -1763,7 +1869,7 @@
       <c r="H19" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="18" t="s">
         <v>69</v>
       </c>
@@ -1793,7 +1899,7 @@
       <c r="H20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="17" t="s">
         <v>69</v>
       </c>
@@ -1820,10 +1926,10 @@
       <c r="G21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="18"/>
+      <c r="H21" s="40">
+        <v>43312</v>
+      </c>
+      <c r="I21" s="37"/>
       <c r="J21" s="18" t="s">
         <v>69</v>
       </c>
@@ -1853,7 +1959,7 @@
       <c r="H22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="17" t="s">
         <v>69</v>
       </c>
@@ -1881,7 +1987,7 @@
         <v>71</v>
       </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="17" t="s">
         <v>85</v>
       </c>
@@ -1909,7 +2015,7 @@
         <v>47</v>
       </c>
       <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="18" t="s">
         <v>83</v>
       </c>
@@ -1937,7 +2043,7 @@
         <v>65</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="18" t="s">
         <v>81</v>
       </c>
@@ -1965,7 +2071,7 @@
         <v>71</v>
       </c>
       <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="29" t="s">
         <v>89</v>
       </c>
@@ -1993,7 +2099,7 @@
         <v>65</v>
       </c>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="18" t="s">
         <v>81</v>
       </c>
@@ -2021,7 +2127,7 @@
         <v>71</v>
       </c>
       <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="29" t="s">
         <v>89</v>
       </c>
@@ -2049,7 +2155,7 @@
         <v>71</v>
       </c>
       <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="32" t="s">
         <v>85</v>
       </c>
